--- a/hz-ms-report/src/main/resources/excel/report_19.xlsx
+++ b/hz-ms-report/src/main/resources/excel/report_19.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21601"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F568EB89-3840-40CA-B20B-561499623035}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="96" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,9 +36,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>机构</t>
-  </si>
-  <si>
     <t>LOAN_BALANCE_10</t>
   </si>
   <si>
@@ -81,19 +79,23 @@
   </si>
   <si>
     <t>$MAIN_BR_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贷款机构</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;;@"/>
     <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="178" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -207,20 +209,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -228,11 +230,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -274,7 +284,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -306,9 +316,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -340,6 +368,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -515,137 +561,137 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="14.88671875" style="1" customWidth="1"/>
-    <col min="2" max="3" width="8.88671875" style="1" customWidth="1"/>
-    <col min="4" max="5" width="8.88671875" style="1"/>
-    <col min="6" max="7" width="8.88671875" style="1" customWidth="1"/>
-    <col min="8" max="9" width="8.88671875" style="1"/>
-    <col min="10" max="10" width="8.88671875" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="14.875" style="1" customWidth="1"/>
+    <col min="2" max="3" width="8.875" style="1" customWidth="1"/>
+    <col min="4" max="5" width="8.875" style="1"/>
+    <col min="6" max="7" width="8.875" style="1" customWidth="1"/>
+    <col min="8" max="9" width="8.875" style="1"/>
+    <col min="10" max="10" width="8.875" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="25.8">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:10" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="2"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="I2" s="15" t="s">
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="I2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="15"/>
-    </row>
-    <row r="3" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A3" s="13" t="s">
+      <c r="J2" s="13"/>
+    </row>
+    <row r="3" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="12"/>
+      <c r="J3" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="16"/>
+      <c r="B4" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="16"/>
-      <c r="J3" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A4" s="13"/>
-      <c r="B4" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="J4" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="6" t="s">
+      <c r="C5" s="6" t="s">
         <v>6</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>7</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>2</v>
       </c>
       <c r="G5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="I5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="J5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -657,7 +703,7 @@
       <c r="I6" s="6"/>
       <c r="J6" s="4"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -669,7 +715,7 @@
       <c r="I7" s="6"/>
       <c r="J7" s="4"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -681,7 +727,7 @@
       <c r="I8" s="6"/>
       <c r="J8" s="4"/>
     </row>
-    <row r="9" spans="1:10" ht="15.6">
+    <row r="9" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="9"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -693,7 +739,7 @@
       <c r="I9" s="6"/>
       <c r="J9" s="4"/>
     </row>
-    <row r="10" spans="1:10" ht="15.6">
+    <row r="10" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="9"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -705,7 +751,7 @@
       <c r="I10" s="6"/>
       <c r="J10" s="4"/>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -717,7 +763,7 @@
       <c r="I11" s="6"/>
       <c r="J11" s="4"/>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -729,7 +775,7 @@
       <c r="I12" s="6"/>
       <c r="J12" s="4"/>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -741,7 +787,7 @@
       <c r="I13" s="6"/>
       <c r="J13" s="4"/>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -753,7 +799,7 @@
       <c r="I14" s="6"/>
       <c r="J14" s="4"/>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -765,7 +811,7 @@
       <c r="I15" s="6"/>
       <c r="J15" s="4"/>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -777,7 +823,7 @@
       <c r="I16" s="6"/>
       <c r="J16" s="4"/>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -789,7 +835,7 @@
       <c r="I17" s="6"/>
       <c r="J17" s="4"/>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -801,7 +847,7 @@
       <c r="I18" s="6"/>
       <c r="J18" s="4"/>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -813,7 +859,7 @@
       <c r="I19" s="6"/>
       <c r="J19" s="4"/>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
@@ -825,7 +871,7 @@
       <c r="I20" s="6"/>
       <c r="J20" s="4"/>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -837,7 +883,7 @@
       <c r="I21" s="6"/>
       <c r="J21" s="4"/>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
@@ -849,24 +895,24 @@
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="G24" s="3"/>
       <c r="J24" s="4"/>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
       <c r="G25" s="3"/>
       <c r="J25" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="I2:J2"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="A3:A4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -875,12 +921,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -889,12 +935,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
